--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E615F91-E791-4756-A7B9-27E251DE397F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EBEE89-4C1D-4F5F-B1D6-53DB79CDFE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inter"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -124,30 +130,552 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -158,6 +686,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн" dataDxfId="3">
+      <calculatedColumnFormula>C2*D2/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="1">
+      <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,23 +973,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -463,44 +1012,44 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="9">
         <v>300</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="9">
         <v>360</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="9">
         <f>C2*D2/1000</f>
         <v>108</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="9">
         <v>1.6</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="9">
         <f>E2*F2</f>
         <v>172.8</v>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="H2" s="10" t="str">
         <f>H4</f>
         <v>-</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5">
@@ -517,18 +1066,18 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G7" si="1">E3*F3</f>
+        <f t="shared" ref="G3:H7" si="1">E3*F3</f>
         <v>2.145</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5">
@@ -548,16 +1097,16 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="12" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5">
@@ -577,16 +1126,16 @@
         <f t="shared" si="1"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="12" t="str">
         <f>H2</f>
         <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="5">
@@ -606,40 +1155,43 @@
         <f t="shared" si="1"/>
         <v>21.599999999999998</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="15">
         <v>7850</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="15">
         <v>114</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>894.9</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="15">
         <v>1.05</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="15">
         <f t="shared" si="1"/>
         <v>939.64499999999998</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="16" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EBEE89-4C1D-4F5F-B1D6-53DB79CDFE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065A9DBF-FF75-41DD-81D9-18D866F42603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="СборНагрузок" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>№ п/п</t>
   </si>
   <si>
     <t>Наименование</t>
-  </si>
-  <si>
-    <t>Qн</t>
   </si>
   <si>
     <t>γf</t>
@@ -86,13 +83,40 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>кг/м3</t>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <t>Единицы измерения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qн, </t>
+  </si>
+  <si>
+    <r>
+      <t>кг/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +137,13 @@
       <name val="Inter"/>
       <charset val="204"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inter"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -146,6 +177,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -230,6 +274,32 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -242,7 +312,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -257,7 +327,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -269,13 +339,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -286,33 +355,45 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,7 +754,7 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -695,7 +776,7 @@
     <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="3">
       <calculatedColumnFormula>C2*D2/1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="2"/>
@@ -971,26 +1052,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -998,196 +1079,219 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10">
         <v>300</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>360</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <f>C2*D2/1000</f>
         <v>108</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>1.6</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <f>E2*F2</f>
         <v>172.8</v>
       </c>
-      <c r="H2" s="10" t="str">
+      <c r="H2" s="11" t="str">
         <f>H4</f>
         <v>-</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
         <v>1300</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1.5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f t="shared" ref="E3:E7" si="0">C3*D3/1000</f>
         <v>1.95</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f t="shared" ref="G3:H7" si="1">E3*F3</f>
         <v>2.145</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>13</v>
+      <c r="H3" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
         <v>100</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>150</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>1.2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H4" s="12" t="str">
+      <c r="H4" s="13" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
         <v>800</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>90</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>1.2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="H5" s="12" t="str">
+      <c r="H5" s="13" t="str">
         <f>H2</f>
         <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4">
         <v>1800</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1.2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
         <v>21.599999999999998</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>14</v>
+      <c r="H6" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
         <v>7850</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="7">
         <v>114</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>894.9</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="7">
         <v>1.05</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
         <v>939.64499999999998</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="H7" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065A9DBF-FF75-41DD-81D9-18D866F42603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E312CA11-543E-4E47-B1B9-9BC8BA1139D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СборНагрузок" sheetId="1" r:id="rId1"/>
+    <sheet name="РасчётБалок" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>№ п/п</t>
   </si>
@@ -73,9 +74,6 @@
     <t>24045-2016</t>
   </si>
   <si>
-    <t>56704-2022</t>
-  </si>
-  <si>
     <t>18124-2012</t>
   </si>
   <si>
@@ -83,9 +81,6 @@
   </si>
   <si>
     <t>h</t>
-  </si>
-  <si>
-    <t>кг/м3</t>
   </si>
   <si>
     <t>мм</t>
@@ -111,12 +106,57 @@
       <t>2</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>кг/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>плотность</t>
+  </si>
+  <si>
+    <t>толщина</t>
+  </si>
+  <si>
+    <t>нагрузка</t>
+  </si>
+  <si>
+    <t>коэф</t>
+  </si>
+  <si>
+    <t>СП 20.13330.2016</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t>Ce</t>
+  </si>
+  <si>
+    <t>Ct</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Sg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,16 +184,28 @@
       <name val="Inter"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Inter"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -177,26 +229,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -208,10 +245,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -220,54 +255,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -281,7 +269,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -291,7 +279,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -300,7 +299,69 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -309,28 +370,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -339,11 +383,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -351,56 +395,65 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -423,9 +476,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -698,9 +749,7 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -716,6 +765,22 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -770,7 +835,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="6"/>
@@ -1052,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1063,71 +1128,72 @@
     <col min="1" max="1" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10">
-        <v>300</v>
-      </c>
-      <c r="D2" s="10">
-        <v>360</v>
-      </c>
-      <c r="E2" s="10">
-        <f>C2*D2/1000</f>
-        <v>108</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="G2" s="10">
-        <f>E2*F2</f>
-        <v>172.8</v>
-      </c>
-      <c r="H2" s="11" t="str">
+      <c r="C2" s="12" t="str">
+        <f>Таблица1[[#This Row],[h]]</f>
+        <v>-</v>
+      </c>
+      <c r="D2" s="12" t="str">
         <f>H4</f>
         <v>-</v>
       </c>
+      <c r="E2" s="12">
+        <v>150</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="G2" s="12">
+        <f>E2*F2</f>
+        <v>210</v>
+      </c>
+      <c r="H2" s="24" t="str">
+        <f>H4</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1150,15 +1216,15 @@
         <f t="shared" ref="G3:H7" si="1">E3*F3</f>
         <v>2.145</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>12</v>
+      <c r="H3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4">
@@ -1178,13 +1244,13 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H4" s="13" t="str">
+      <c r="H4" s="5" t="str">
         <f>"-"</f>
         <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1207,17 +1273,17 @@
         <f t="shared" si="1"/>
         <v>86.399999999999991</v>
       </c>
-      <c r="H5" s="13" t="str">
+      <c r="H5" s="5" t="str">
         <f>H2</f>
         <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
         <v>1800</v>
@@ -1236,57 +1302,78 @@
         <f t="shared" si="1"/>
         <v>21.599999999999998</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>13</v>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>7850</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>114</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>894.9</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="9">
         <v>1.05</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="9">
         <f t="shared" si="1"/>
         <v>939.64499999999998</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="F8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="19"/>
+      <c r="D9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="20" t="str">
+        <f>E9</f>
+        <v>нагрузка</v>
+      </c>
+      <c r="H9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1298,4 +1385,54 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DCDC94-8D65-44A4-8AE5-D87CCC3BD610}">
+  <dimension ref="A2:E3"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>PRODUCT(B3:E3)</f>
+        <v>1.5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Documents\Учёба\Практика\ProjectPractice2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E312CA11-543E-4E47-B1B9-9BC8BA1139D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587EAA4D-1FEB-466B-B0F2-90C0143896A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СборНагрузок" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>№ п/п</t>
   </si>
@@ -137,26 +137,65 @@
     <t>СП 20.13330.2016</t>
   </si>
   <si>
-    <t>S0</t>
-  </si>
-  <si>
-    <t>Ce</t>
-  </si>
-  <si>
-    <t>Ct</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>Sg</t>
+    <t>Второстепенные балки</t>
+  </si>
+  <si>
+    <t>𝑓</t>
+  </si>
+  <si>
+    <t>𝑞</t>
+  </si>
+  <si>
+    <t>𝑙</t>
+  </si>
+  <si>
+    <t>𝐸</t>
+  </si>
+  <si>
+    <t>𝐽</t>
+  </si>
+  <si>
+    <t>Величина</t>
+  </si>
+  <si>
+    <t>Норматив</t>
+  </si>
+  <si>
+    <t>Расчётная</t>
+  </si>
+  <si>
+    <t>Единица</t>
+  </si>
+  <si>
+    <t>Мпа</t>
+  </si>
+  <si>
+    <t>кг/м</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <r>
+      <t>см</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +229,19 @@
       <name val="Inter"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inter"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans Math"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -205,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -379,11 +431,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,13 +631,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -447,6 +650,59 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,51 +1375,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1187,12 +1443,12 @@
         <f>E2*F2</f>
         <v>210</v>
       </c>
-      <c r="H2" s="24" t="str">
+      <c r="H2" s="22" t="str">
         <f>H4</f>
         <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1213,14 +1469,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:H7" si="1">E3*F3</f>
+        <f t="shared" ref="G3:G7" si="1">E3*F3</f>
         <v>2.145</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1249,7 +1505,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1278,7 +1534,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1306,7 +1562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1334,46 +1590,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20" t="str">
+      <c r="F9" s="19"/>
+      <c r="G9" s="18" t="str">
         <f>E9</f>
         <v>нагрузка</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1389,50 +1645,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DCDC94-8D65-44A4-8AE5-D87CCC3BD610}">
-  <dimension ref="A2:E3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="23"/>
+    <col min="5" max="5" width="9.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="23"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29"/>
+      <c r="B1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="38" t="s">
         <v>29</v>
       </c>
+      <c r="F2" s="39" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>PRODUCT(B3:E3)</f>
-        <v>1.5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1.5</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="40">
+        <f>5/384*(C3*D3^4)/(E3*F3)*1000</f>
+        <v>9.1445624999999993</v>
+      </c>
+      <c r="C3" s="27">
+        <v>541.9</v>
+      </c>
+      <c r="D3" s="28">
+        <v>6</v>
+      </c>
+      <c r="E3" s="28">
+        <f>2*10^5</f>
+        <v>200000</v>
+      </c>
+      <c r="F3" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="40">
+        <f>5/384*(C4*D3^4)/(E3*F4)*1000</f>
+        <v>10.126265625</v>
+      </c>
+      <c r="C4" s="27">
+        <v>720.09</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Documents\Учёба\Практика\ProjectPractice2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587EAA4D-1FEB-466B-B0F2-90C0143896A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAE37EA-48C8-468E-8049-61A57A001B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>№ п/п</t>
   </si>
@@ -137,9 +137,6 @@
     <t>СП 20.13330.2016</t>
   </si>
   <si>
-    <t>Второстепенные балки</t>
-  </si>
-  <si>
     <t>𝑓</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>Единица</t>
-  </si>
-  <si>
-    <t>Мпа</t>
   </si>
   <si>
     <t>кг/м</t>
@@ -189,6 +183,15 @@
       </rPr>
       <t>4</t>
     </r>
+  </si>
+  <si>
+    <t>МПа</t>
+  </si>
+  <si>
+    <t>Второстепенные балки - ГОСТ 30245-2012</t>
+  </si>
+  <si>
+    <t>40x40x2,0</t>
   </si>
 </sst>
 </file>
@@ -239,8 +242,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Noto Sans Math"/>
-      <family val="2"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -654,15 +658,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -684,12 +679,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,12 +707,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1591,10 +1595,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
@@ -1647,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DCDC94-8D65-44A4-8AE5-D87CCC3BD610}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,18 +1661,20 @@
     <col min="2" max="2" width="9.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="23"/>
     <col min="5" max="5" width="9.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="23"/>
+    <col min="6" max="6" width="9.140625" style="23"/>
+    <col min="7" max="7" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29"/>
-      <c r="B1" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -1677,83 +1683,86 @@
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="37" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="F2" s="41" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="40">
+      <c r="A3" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="32">
         <f>5/384*(C3*D3^4)/(E3*F3)*1000</f>
-        <v>9.1445624999999993</v>
-      </c>
-      <c r="C3" s="27">
+        <v>6.5883015129682994</v>
+      </c>
+      <c r="C3" s="25">
         <v>541.9</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="38">
         <v>6</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="38">
         <f>2*10^5</f>
         <v>200000</v>
       </c>
-      <c r="F3" s="30">
-        <v>5</v>
+      <c r="F3" s="27">
+        <v>6.94</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="40">
+      <c r="A4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="32">
         <f>5/384*(C4*D3^4)/(E3*F4)*1000</f>
-        <v>10.126265625</v>
-      </c>
-      <c r="C4" s="27">
+        <v>8.7546965057636896</v>
+      </c>
+      <c r="C4" s="25">
         <v>720.09</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="30">
-        <v>6</v>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="27">
+        <v>6.94</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Documents\Учёба\Практика\ProjectPractice2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAE37EA-48C8-468E-8049-61A57A001B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C60253F-EEC1-43EC-94EE-1253FC5B5C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>№ п/п</t>
   </si>
@@ -137,21 +137,6 @@
     <t>СП 20.13330.2016</t>
   </si>
   <si>
-    <t>𝑓</t>
-  </si>
-  <si>
-    <t>𝑞</t>
-  </si>
-  <si>
-    <t>𝑙</t>
-  </si>
-  <si>
-    <t>𝐸</t>
-  </si>
-  <si>
-    <t>𝐽</t>
-  </si>
-  <si>
     <t>Величина</t>
   </si>
   <si>
@@ -192,6 +177,27 @@
   </si>
   <si>
     <t>40x40x2,0</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Сечение</t>
   </si>
 </sst>
 </file>
@@ -240,6 +246,7 @@
       <charset val="204"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria"/>
@@ -261,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -567,36 +574,170 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -661,9 +802,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,15 +829,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,6 +836,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1595,10 +1766,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
@@ -1651,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DCDC94-8D65-44A4-8AE5-D87CCC3BD610}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,15 +1838,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
-      <c r="B1" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="24"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
@@ -1684,85 +1857,95 @@
       <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="40" t="s">
+      <c r="A2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>29</v>
+      <c r="B2" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="32">
+      <c r="A3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="31">
         <f>5/384*(C3*D3^4)/(E3*F3)*1000</f>
         <v>6.5883015129682994</v>
       </c>
       <c r="C3" s="25">
         <v>541.9</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="47">
         <v>6</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="47">
         <f>2*10^5</f>
         <v>200000</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>6.94</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>39</v>
+      <c r="G3" s="39" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>32</v>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="B4" s="32">
         <f>5/384*(C4*D3^4)/(E3*F4)*1000</f>
         <v>8.7546965057636896</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="27">
         <v>720.09</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="27">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="28">
         <v>6.94</v>
+      </c>
+      <c r="G4" s="40" t="str">
+        <f>G3</f>
+        <v>40x40x2,0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="E5" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="45" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF43A04-ABA6-4913-9F12-292F5F37A989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8638FD9D-1D60-4658-B759-A7C1DC5F4B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>№ п/п</t>
   </si>
@@ -247,20 +247,113 @@
     <t>Проверка на прочность при изгибе</t>
   </si>
   <si>
-    <t>Wx</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>Jx</t>
+    <t>σ</t>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>max</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>max</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>max</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>≤</t>
+  </si>
+  <si>
+    <r>
+      <t>кг/см</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,11 +404,43 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -332,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -530,11 +655,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -592,19 +757,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -613,22 +766,27 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,10 +796,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,6 +860,287 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Inter"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -687,287 +1179,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Inter"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -981,101 +1192,21 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>68495</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>29967</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>398124</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>68494</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D276C3A-DFAE-4900-BF5B-3C83540422D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2726933" y="1665270"/>
-          <a:ext cx="2487202" cy="565078"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100"/>
-            <a:t>ДЗ:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t> доделать проверку на прочность!</a:t>
-          </a:r>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="3">
       <calculatedColumnFormula>C2*D2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="1">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1364,28 +1495,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1563,23 +1694,23 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="13"/>
@@ -1604,28 +1735,28 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="25">
         <f>SUM(Таблица1[Qн, ])</f>
         <v>270.95</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29">
+      <c r="F10" s="24"/>
+      <c r="G10" s="25">
         <v>360.04500000000002</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="28">
+      <c r="D11" s="24">
         <v>2</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="24">
         <f>D11*E10</f>
         <v>541.9</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24">
         <f>D11*G10</f>
         <v>720.09</v>
       </c>
@@ -1644,82 +1775,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DCDC94-8D65-44A4-8AE5-D87CCC3BD610}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.77734375" style="21" customWidth="1"/>
+    <col min="8" max="9" width="4.109375" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="8.77734375" style="21" customWidth="1"/>
     <col min="13" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="40" t="s">
+        <v>42</v>
+      </c>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="F2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>41</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="26">
         <f>5/384*(C3*D3^4)/(E3*F3)</f>
         <v>1.9329282622544516E-2</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="26">
         <f>СборНагрузок!E11</f>
         <v>541.9</v>
       </c>
@@ -1729,136 +1865,200 @@
       <c r="E3" s="32">
         <v>20394324000</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="36">
         <f>(G3/100)^4</f>
         <v>2.3197323649600005E-5</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="32">
         <v>6.94</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="32">
         <v>40</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="23">
-        <f>5/384*(C4*D3^4)/(E3*F4)</f>
+      <c r="B4" s="26">
+        <f>5/384*(C4*D3^4)/(E3*F3)</f>
         <v>2.5685224439321062E-2</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="26">
         <f>СборНагрузок!G11</f>
         <v>720.09</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
-      <c r="F4" s="23">
-        <f>(G3/100)^4</f>
-        <v>2.3197323649600005E-5</v>
-      </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="37"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="str">
+        <f>A2</f>
+        <v>Единица</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="23" t="str">
-        <f>IF(B3&lt;1/200*D3, A25, A26)</f>
+      <c r="B8" s="38" t="str">
+        <f>IF(B3&lt;1/200*D3, J1, J2)</f>
         <v>✓</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="C8" s="52">
+        <f>(H3/10)^3/6</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="D8" s="26">
+        <f>C3*D3^2/8</f>
+        <v>2438.5499999999997</v>
+      </c>
+      <c r="E8" s="26">
+        <f>D8/C8</f>
+        <v>228.61406249999999</v>
+      </c>
+      <c r="F8" s="38" t="str">
+        <f>IF(E8&lt;=G8, J1,J2)</f>
+        <v>✓</v>
+      </c>
+      <c r="G8" s="46">
+        <v>240</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="23" t="str">
-        <f>IF(B4&lt;1/200*D3, A25, A26)</f>
+      <c r="B9" s="38" t="str">
+        <f>IF(B4&lt;1/200*D3, J1, J2)</f>
         <v>✓</v>
       </c>
-      <c r="C8" s="23">
-        <f>H3^3/6</f>
-        <v>10666.666666666666</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="26">
+        <f>C4*D3^2/8</f>
+        <v>3240.4050000000002</v>
+      </c>
+      <c r="E9" s="26">
+        <f>D9/C8</f>
+        <v>303.78796875000006</v>
+      </c>
+      <c r="F9" s="38" t="str">
+        <f>IF(E9&lt;=G8,J1,J2)</f>
+        <v>✗</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
     </row>
-    <row r="25" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
-        <v>43</v>
-      </c>
+    <row r="10" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="42" t="str">
+        <f>J1&amp;"/"&amp;J2</f>
+        <v>✓/✗</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="27" t="str">
+        <f>G10</f>
+        <v>кг/см2</v>
+      </c>
+      <c r="F10" s="42" t="str">
+        <f>B10</f>
+        <v>✓/✗</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B1:F1"/>
+  <mergeCells count="14">
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I9"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="A6:B6"/>
@@ -1869,7 +2069,6 @@
     <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8638FD9D-1D60-4658-B759-A7C1DC5F4B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3701EA-53C6-4D11-8D1F-2977D5351DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СборНагрузок" sheetId="1" r:id="rId1"/>
     <sheet name="РасчётБалок" sheetId="2" r:id="rId2"/>
+    <sheet name="РасчетБалок" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>№ п/п</t>
   </si>
@@ -147,12 +148,6 @@
   </si>
   <si>
     <t>Единица</t>
-  </si>
-  <si>
-    <t>кг/м</t>
-  </si>
-  <si>
-    <t>м</t>
   </si>
   <si>
     <t>Второстепенные балки - ГОСТ 30245-2012</t>
@@ -247,7 +242,10 @@
     <t>Проверка на прочность при изгибе</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Wx</t>
+  </si>
+  <si>
+    <t>Jx</t>
   </si>
   <si>
     <t>σ</t>
@@ -344,16 +342,121 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>кг/cм</t>
+  </si>
+  <si>
+    <t>кг*см</t>
+  </si>
+  <si>
+    <r>
+      <t>см</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>СТД  НОМЕР              ИНФОРМАЦИЯ
+ГОСТ 27772-2015         σ
+ГОСТ 30245-2012         Jx, Wx, a, t
+СП   16.13330.2017      Уc, E</t>
+  </si>
+  <si>
+    <r>
+      <t>кг/cм</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>cм</t>
+  </si>
+  <si>
+    <t>Дано</t>
+  </si>
+  <si>
+    <t>см</t>
+  </si>
+  <si>
+    <r>
+      <t>см</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>кг/см</t>
+  </si>
+  <si>
+    <t>Расчёт</t>
+  </si>
+  <si>
+    <t>Норма</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>с</t>
+    </r>
+  </si>
+  <si>
+    <t>Ry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,8 +545,30 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +578,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -840,12 +977,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,13 +984,83 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1193,20 +1394,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="6">
       <calculatedColumnFormula>C2*D2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="4">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1478,7 +1679,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1937,7 @@
     </row>
     <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="D10" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="25">
         <f>SUM(Таблица1[Qн, ])</f>
@@ -1744,8 +1945,10 @@
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25">
-        <v>360.04500000000002</v>
-      </c>
+        <f>SUM(Таблица1[Qp])</f>
+        <v>352.84500000000003</v>
+      </c>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="24">
@@ -1758,7 +1961,7 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24">
         <f>D11*G10</f>
-        <v>720.09</v>
+        <v>705.69</v>
       </c>
     </row>
   </sheetData>
@@ -1775,28 +1978,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DCDC94-8D65-44A4-8AE5-D87CCC3BD610}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="178" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" style="21" customWidth="1"/>
     <col min="10" max="12" width="8.77734375" style="21" customWidth="1"/>
     <col min="13" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -1805,11 +2009,11 @@
       <c r="F1" s="35"/>
       <c r="G1" s="34"/>
       <c r="H1" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I1" s="31"/>
       <c r="J1" s="40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
@@ -1820,105 +2024,95 @@
         <v>28</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="36">
+        <f>(5/384)*(C3*D3^4)/(E3*G3)</f>
+        <v>317.21413764144273</v>
+      </c>
+      <c r="C3" s="36">
+        <f>СборНагрузок!E11/100</f>
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="D3" s="32">
+        <v>600</v>
+      </c>
+      <c r="E3" s="32">
+        <f>200000000000/9.81/(100^2)</f>
+        <v>2038735.9836901119</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="55">
+        <v>14.14</v>
+      </c>
+      <c r="H3" s="55">
         <v>50</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="26">
-        <f>5/384*(C3*D3^4)/(E3*F3)</f>
-        <v>1.9329282622544516E-2</v>
-      </c>
-      <c r="C3" s="26">
-        <f>СборНагрузок!E11</f>
-        <v>541.9</v>
-      </c>
-      <c r="D3" s="32">
-        <v>6</v>
-      </c>
-      <c r="E3" s="32">
-        <v>20394324000</v>
-      </c>
-      <c r="F3" s="36">
-        <f>(G3/100)^4</f>
-        <v>2.3197323649600005E-5</v>
-      </c>
-      <c r="G3" s="32">
-        <v>6.94</v>
-      </c>
-      <c r="H3" s="32">
-        <v>40</v>
-      </c>
-      <c r="I3" s="32">
+      <c r="I3" s="56">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="26">
-        <f>5/384*(C4*D3^4)/(E3*F3)</f>
-        <v>2.5685224439321062E-2</v>
-      </c>
-      <c r="C4" s="26">
-        <f>СборНагрузок!G11</f>
-        <v>720.09</v>
-      </c>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
       <c r="F4" s="37"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>15</v>
@@ -1929,11 +2123,11 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -1948,22 +2142,22 @@
         <v>Единица</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="28" t="s">
+      <c r="G7" s="43" t="s">
         <v>46</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>47</v>
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="45"/>
@@ -1974,26 +2168,25 @@
       </c>
       <c r="B8" s="38" t="str">
         <f>IF(B3&lt;1/200*D3, J1, J2)</f>
-        <v>✓</v>
-      </c>
-      <c r="C8" s="52">
-        <f>(H3/10)^3/6</f>
-        <v>10.666666666666666</v>
+        <v>✗</v>
+      </c>
+      <c r="C8" s="57">
+        <v>5.66</v>
       </c>
       <c r="D8" s="26">
         <f>C3*D3^2/8</f>
-        <v>2438.5499999999997</v>
+        <v>243854.99999999997</v>
       </c>
       <c r="E8" s="26">
         <f>D8/C8</f>
-        <v>228.61406249999999</v>
+        <v>43083.922261484091</v>
       </c>
       <c r="F8" s="38" t="str">
         <f>IF(E8&lt;=G8, J1,J2)</f>
-        <v>✓</v>
+        <v>✗</v>
       </c>
       <c r="G8" s="46">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H8" s="47"/>
       <c r="I8" s="48"/>
@@ -2006,18 +2199,18 @@
         <f>IF(B4&lt;1/200*D3, J1, J2)</f>
         <v>✓</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="26">
         <f>C4*D3^2/8</f>
-        <v>3240.4050000000002</v>
+        <v>0</v>
       </c>
       <c r="E9" s="26">
         <f>D9/C8</f>
-        <v>303.78796875000006</v>
+        <v>0</v>
       </c>
       <c r="F9" s="38" t="str">
         <f>IF(E9&lt;=G8,J1,J2)</f>
-        <v>✗</v>
+        <v>✓</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="50"/>
@@ -2032,29 +2225,78 @@
         <v>✓/✗</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="27" t="str">
-        <f>G10</f>
-        <v>кг/см2</v>
+        <v>55</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="F10" s="42" t="str">
         <f>B10</f>
         <v>✓/✗</v>
       </c>
-      <c r="G10" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
+      <c r="G10" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="18">
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A11:I14"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="G7:I7"/>
@@ -2071,4 +2313,142 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9E8718-6AD5-4BAC-8B1F-72CAB04E655F}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="21"/>
+    <col min="2" max="2" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="65">
+        <v>600</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="65">
+        <v>14.1</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="65">
+        <v>5.66</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="65">
+        <f>200000000000/9.81/(100^2)</f>
+        <v>2038735.9836901119</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="65">
+        <f>СборНагрузок!E11/100</f>
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="65">
+        <f>(5/384)*(B6*B2^4)/(B5*B3)</f>
+        <v>318.11403590425533</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="68">
+        <f>B2/200</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>$D$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3701EA-53C6-4D11-8D1F-2977D5351DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E27E5C-A69B-4865-A4E9-212A13748AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СборНагрузок" sheetId="1" r:id="rId1"/>
-    <sheet name="РасчётБалок" sheetId="2" r:id="rId2"/>
-    <sheet name="РасчетБалок" sheetId="3" r:id="rId3"/>
+    <sheet name="РасчетБалок" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>№ п/п</t>
   </si>
@@ -138,21 +137,6 @@
     <t>СП 20.13330.2016</t>
   </si>
   <si>
-    <t>Величина</t>
-  </si>
-  <si>
-    <t>Норматив</t>
-  </si>
-  <si>
-    <t>Расчётная</t>
-  </si>
-  <si>
-    <t>Единица</t>
-  </si>
-  <si>
-    <t>Второстепенные балки - ГОСТ 30245-2012</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
@@ -183,8 +167,20 @@
     </r>
   </si>
   <si>
+    <t>Wx</t>
+  </si>
+  <si>
+    <t>Jx</t>
+  </si>
+  <si>
+    <t>Mx</t>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
     <r>
-      <t>м</t>
+      <t>кг/см</t>
     </r>
     <r>
       <rPr>
@@ -194,7 +190,125 @@
         <rFont val="Inter"/>
         <charset val="204"/>
       </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>кг*см</t>
+  </si>
+  <si>
+    <r>
+      <t>см</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>cм</t>
+  </si>
+  <si>
+    <t>Дано</t>
+  </si>
+  <si>
+    <t>см</t>
+  </si>
+  <si>
+    <r>
+      <t>см</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Inter"/>
+        <charset val="204"/>
+      </rPr>
       <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>кг/см</t>
+  </si>
+  <si>
+    <t>Норма</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>с</t>
+    </r>
+  </si>
+  <si>
+    <t>Ry</t>
+  </si>
+  <si>
+    <t>160х160х7</t>
+  </si>
+  <si>
+    <t>Расчёт Jx</t>
+  </si>
+  <si>
+    <t>Расчёт Wx</t>
+  </si>
+  <si>
+    <t>20Б0</t>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>тр</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>тр</t>
     </r>
   </si>
   <si>
@@ -209,254 +323,15 @@
         <rFont val="Inter"/>
         <charset val="204"/>
       </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Макс. прогиб &lt; 1/200*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>l</t>
-    </r>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>✓</t>
-  </si>
-  <si>
-    <t>✗</t>
-  </si>
-  <si>
-    <t>Проверка на прочность при изгибе</t>
-  </si>
-  <si>
-    <t>Wx</t>
-  </si>
-  <si>
-    <t>Jx</t>
-  </si>
-  <si>
-    <t>σ</t>
-  </si>
-  <si>
-    <r>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>max</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>max</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>max</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>≤</t>
-  </si>
-  <si>
-    <r>
-      <t>кг/см</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Inter"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>кг/cм</t>
-  </si>
-  <si>
-    <t>кг*см</t>
-  </si>
-  <si>
-    <r>
-      <t>см</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Inter"/>
-        <charset val="204"/>
-      </rPr>
       <t>3</t>
     </r>
-  </si>
-  <si>
-    <t>СТД  НОМЕР              ИНФОРМАЦИЯ
-ГОСТ 27772-2015         σ
-ГОСТ 30245-2012         Jx, Wx, a, t
-СП   16.13330.2017      Уc, E</t>
-  </si>
-  <si>
-    <r>
-      <t>кг/cм</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Inter"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>cм</t>
-  </si>
-  <si>
-    <t>Дано</t>
-  </si>
-  <si>
-    <t>см</t>
-  </si>
-  <si>
-    <r>
-      <t>см</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Inter"/>
-        <charset val="204"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>кг/см</t>
-  </si>
-  <si>
-    <t>Расчёт</t>
-  </si>
-  <si>
-    <t>Норма</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>γ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>с</t>
-    </r>
-  </si>
-  <si>
-    <t>Ry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,58 +373,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <i/>
@@ -583,18 +411,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -769,65 +597,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -836,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -893,7 +683,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,112 +692,20 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1020,17 +717,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1394,20 +1130,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="9">
       <calculatedColumnFormula>C2*D2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="7">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1679,7 +1415,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1696,28 +1432,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1895,23 +1631,23 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="13"/>
@@ -1936,30 +1672,30 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D10" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="25">
+      <c r="D10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="24">
         <f>SUM(Таблица1[Qн, ])</f>
         <v>270.95</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25">
+      <c r="F10" s="23"/>
+      <c r="G10" s="24">
         <f>SUM(Таблица1[Qp])</f>
         <v>352.84500000000003</v>
       </c>
-      <c r="H10" s="61"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>2</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <f>D11*E10</f>
         <v>541.9</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23">
         <f>D11*G10</f>
         <v>705.69</v>
       </c>
@@ -1977,476 +1713,255 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DCDC94-8D65-44A4-8AE5-D87CCC3BD610}">
-  <dimension ref="A1:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9E8718-6AD5-4BAC-8B1F-72CAB04E655F}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="178" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.77734375" style="21" customWidth="1"/>
-    <col min="10" max="12" width="8.77734375" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="36">
-        <f>(5/384)*(C3*D3^4)/(E3*G3)</f>
-        <v>317.21413764144273</v>
-      </c>
-      <c r="C3" s="36">
-        <f>СборНагрузок!E11/100</f>
-        <v>5.4189999999999996</v>
-      </c>
-      <c r="D3" s="32">
-        <v>600</v>
-      </c>
-      <c r="E3" s="32">
-        <f>200000000000/9.81/(100^2)</f>
-        <v>2038735.9836901119</v>
-      </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="55">
-        <v>14.14</v>
-      </c>
-      <c r="H3" s="55">
-        <v>50</v>
-      </c>
-      <c r="I3" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="str">
-        <f>A2</f>
-        <v>Единица</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="38" t="str">
-        <f>IF(B3&lt;1/200*D3, J1, J2)</f>
-        <v>✗</v>
-      </c>
-      <c r="C8" s="57">
-        <v>5.66</v>
-      </c>
-      <c r="D8" s="26">
-        <f>C3*D3^2/8</f>
-        <v>243854.99999999997</v>
-      </c>
-      <c r="E8" s="26">
-        <f>D8/C8</f>
-        <v>43083.922261484091</v>
-      </c>
-      <c r="F8" s="38" t="str">
-        <f>IF(E8&lt;=G8, J1,J2)</f>
-        <v>✗</v>
-      </c>
-      <c r="G8" s="46">
-        <v>235</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="38" t="str">
-        <f>IF(B4&lt;1/200*D3, J1, J2)</f>
-        <v>✓</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="26">
-        <f>C4*D3^2/8</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
-        <f>D9/C8</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="38" t="str">
-        <f>IF(E9&lt;=G8,J1,J2)</f>
-        <v>✓</v>
-      </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="42" t="str">
-        <f>J1&amp;"/"&amp;J2</f>
-        <v>✓/✗</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="42" t="str">
-        <f>B10</f>
-        <v>✓/✗</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A11:I14"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9E8718-6AD5-4BAC-8B1F-72CAB04E655F}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="5.77734375" style="21" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="21"/>
+    <col min="3" max="3" width="8.88671875" style="21"/>
+    <col min="4" max="4" width="12" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="32">
+        <v>600</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="65">
-        <v>600</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="65">
-        <v>14.1</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="65">
-        <v>5.66</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" s="37">
+        <v>1581.56</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="38">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="65">
-        <f>200000000000/9.81/(100^2)</f>
+      <c r="A5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="32">
+        <f>2*10^5*10^6/9.81/(100^2)</f>
         <v>2038735.9836901119</v>
       </c>
-      <c r="C5" s="64" t="s">
-        <v>52</v>
-      </c>
+      <c r="C5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="65">
+      <c r="A6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="32">
         <f>СборНагрузок!E11/100</f>
         <v>5.4189999999999996</v>
       </c>
-      <c r="C6" s="64" t="s">
-        <v>63</v>
-      </c>
+      <c r="C6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="A7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="32">
         <v>0.9</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
-        <v>67</v>
-      </c>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="27">
+        <f>240*10.1971621297792</f>
+        <v>2447.3189111470078</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="66" t="s">
-        <v>65</v>
+      <c r="A9" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="65">
+      <c r="A10" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="32">
         <f>(5/384)*(B6*B2^4)/(B5*B3)</f>
-        <v>318.11403590425533</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="68">
+        <v>2.836065597416475</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="36">
         <f>B2/200</f>
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="32">
+        <f>(5*25/48)*B6*(B2^3)/B5</f>
+        <v>1495.1359687499998</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="32">
+        <f>B6*B2^2/8</f>
+        <v>243854.99999999997</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="32">
+        <f>B13/B4</f>
+        <v>1526.0012515644553</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="35" t="str">
+        <f>LEFT("&lt; "&amp;B15, 10)</f>
+        <v>&lt; 2202,587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="str">
+        <f>A8&amp;"*"&amp;A7</f>
+        <v>Ry*γс</v>
+      </c>
+      <c r="B15" s="27">
+        <f>B7*B8</f>
+        <v>2202.587020032307</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="21">
+        <f>B6*B2^2/(8*B15)</f>
+        <v>110.71299239583422</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>$D$10</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>$D$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>$B$15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>$B$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>$B$4</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>$D$10</formula>
+      <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E27E5C-A69B-4865-A4E9-212A13748AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EB6EE0-7F03-4DA1-B752-C9834A32BDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>№ п/п</t>
   </si>
@@ -325,6 +325,9 @@
       </rPr>
       <t>3</t>
     </r>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -622,11 +625,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -692,45 +765,83 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,21 +850,21 @@
   <dxfs count="17">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1631,10 +1742,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="22" t="s">
         <v>19</v>
       </c>
@@ -1684,7 +1795,7 @@
         <f>SUM(Таблица1[Qp])</f>
         <v>352.84500000000003</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="23">
@@ -1717,7 +1828,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1729,210 +1840,211 @@
     <col min="5" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="44" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="41">
         <v>600</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="45" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="27">
         <v>1581.56</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="46" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="28">
         <v>159.80000000000001</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="33">
         <f>2*10^5*10^6/9.81/(100^2)</f>
         <v>2038735.9836901119</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="33">
         <f>СборНагрузок!E11/100</f>
         <v>5.4189999999999996</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="46"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="33">
         <v>0.9</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="C7" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="46"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="43">
         <f>240*10.1971621297792</f>
         <v>2447.3189111470078</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="33">
         <f>(5/384)*(B6*B2^4)/(B5*B3)</f>
         <v>2.836065597416475</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="48">
         <f>B2/200</f>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="38">
         <f>(5*25/48)*B6*(B2^3)/B5</f>
         <v>1495.1359687499998</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="D11" s="47"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="33">
         <f>B6*B2^2/8</f>
         <v>243854.99999999997</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="33">
         <f>B13/B4</f>
         <v>1526.0012515644553</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="35" t="str">
+      <c r="D14" s="49" t="str">
         <f>LEFT("&lt; "&amp;B15, 10)</f>
         <v>&lt; 2202,587</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="str">
+      <c r="A15" s="32" t="str">
         <f>A8&amp;"*"&amp;A7</f>
         <v>Ry*γс</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="25">
         <f>B7*B8</f>
         <v>2202.587020032307</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="27"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="37">
         <f>B6*B2^2/(8*B15)</f>
         <v>110.71299239583422</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="37" t="s">
         <v>52</v>
       </c>
+      <c r="D16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1957,10 +2069,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EB6EE0-7F03-4DA1-B752-C9834A32BDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6644B1EC-C172-45DE-BFAF-F600A97FF5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>№ п/п</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>Wx</t>
-  </si>
-  <si>
-    <t>Jx</t>
   </si>
   <si>
     <t>Mx</t>
@@ -268,32 +265,10 @@
     <t>Ry</t>
   </si>
   <si>
-    <t>160х160х7</t>
-  </si>
-  <si>
-    <t>Расчёт Jx</t>
-  </si>
-  <si>
     <t>Расчёт Wx</t>
   </si>
   <si>
     <t>20Б0</t>
-  </si>
-  <si>
-    <r>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>тр</t>
-    </r>
   </si>
   <si>
     <r>
@@ -328,6 +303,37 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Второстепенные балки</t>
+  </si>
+  <si>
+    <t>Первостепенные балки</t>
+  </si>
+  <si>
+    <t>Ix</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>тр</t>
+    </r>
+  </si>
+  <si>
+    <t>Расчёт Ix</t>
+  </si>
+  <si>
+    <t>25Б3</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -695,11 +701,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -765,9 +784,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -775,13 +791,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -837,17 +847,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -905,6 +956,176 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1241,20 +1462,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="27">
       <calculatedColumnFormula>C2*D2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="25">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1523,10 +1744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A6" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1742,10 +1963,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="22" t="s">
         <v>19</v>
       </c>
@@ -1795,7 +2016,7 @@
         <f>SUM(Таблица1[Qp])</f>
         <v>352.84500000000003</v>
       </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="23">
@@ -1809,6 +2030,20 @@
       <c r="G11" s="23">
         <f>D11*G10</f>
         <v>705.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="58">
+        <v>6</v>
+      </c>
+      <c r="E12" s="58">
+        <f>D12*E10</f>
+        <v>1625.6999999999998</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58">
+        <f>D12*G10</f>
+        <v>2117.0700000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1825,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9E8718-6AD5-4BAC-8B1F-72CAB04E655F}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1837,245 +2072,464 @@
     <col min="2" max="2" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="21"/>
     <col min="4" max="4" width="12" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="21"/>
+    <col min="5" max="5" width="8.88671875" style="21"/>
+    <col min="6" max="6" width="12.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="F1" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="38">
+        <v>600</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="D3" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="41">
+      <c r="G3" s="38">
         <v>600</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="H3" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1581.56</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="27">
-        <v>1581.56</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="D4" s="59"/>
+      <c r="F4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="26">
+        <v>5238.16</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B5" s="27">
         <v>159.80000000000001</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="46"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="C5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="F5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="27">
+        <v>410.8</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B6" s="30">
         <f>2*10^5*10^6/9.81/(100^2)</f>
         <v>2038735.9836901119</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="46"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="C6" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="F6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="30">
+        <f>2*10^5*10^6/9.81/(100^2)</f>
+        <v>2038735.9836901119</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="43"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B7" s="30">
         <f>СборНагрузок!E11/100</f>
         <v>5.4189999999999996</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="46"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="C7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="F7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="30">
+        <f>СборНагрузок!E12/100</f>
+        <v>16.256999999999998</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="43"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="F8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="46"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="43">
+      <c r="B9" s="40">
         <f>240*10.1971621297792</f>
         <v>2447.3189111470078</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="F9" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="40">
+        <f>240*10.1971621297792</f>
+        <v>2447.3189111470078</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="30">
+        <f>(5/384)*(B7*B3^4)/(B6*B4)</f>
+        <v>2.836065597416475</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="45">
+        <f>B3/200</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="30">
+        <f>(5/384)*(G7*G3^4)/(G6*G4)</f>
+        <v>2.5688836764722724</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="45">
+        <f>G3/200</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="35">
+        <f>(5*25/48)*B7*(B3^3)/B6</f>
+        <v>1495.1359687499998</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="F12" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="35">
+        <f>(5*25/48)*G7*(G3^3)/G6</f>
+        <v>4485.4079062499995</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="30">
+        <f>B7*B3^2/8</f>
+        <v>243854.99999999997</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="47"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+      <c r="D14" s="43"/>
+      <c r="F14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="30">
+        <f>G7*G3^2/8</f>
+        <v>731564.99999999988</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="30">
+        <f>B14/B5</f>
+        <v>1526.0012515644553</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="46" t="str">
+        <f>LEFT("&lt; "&amp;B16, 10)</f>
+        <v>&lt; 2202,587</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="30">
+        <f>G14/G5</f>
+        <v>1780.8300876338847</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="46" t="str">
+        <f>LEFT("&lt; "&amp;G16, 10)</f>
+        <v>&lt; 2202,587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="str">
+        <f>A9&amp;"*"&amp;A8</f>
+        <v>Ry*γс</v>
+      </c>
+      <c r="B16" s="28">
+        <f>B8*B9</f>
+        <v>2202.587020032307</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="F16" s="29" t="str">
+        <f>F9&amp;"*"&amp;F8</f>
+        <v>Ry*γс</v>
+      </c>
+      <c r="G16" s="28">
+        <f>G8*G9</f>
+        <v>2202.587020032307</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="33">
-        <f>(5/384)*(B6*B2^4)/(B5*B3)</f>
-        <v>2.836065597416475</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="48">
-        <f>B2/200</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="38">
-        <f>(5*25/48)*B6*(B2^3)/B5</f>
-        <v>1495.1359687499998</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="47"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="B17" s="34">
+        <f>B7*B3^2/(8*B16)</f>
+        <v>110.71299239583422</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="33">
-        <f>B6*B2^2/8</f>
-        <v>243854.99999999997</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="46"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="33">
-        <f>B13/B4</f>
-        <v>1526.0012515644553</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="49" t="str">
-        <f>LEFT("&lt; "&amp;B15, 10)</f>
-        <v>&lt; 2202,587</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="str">
-        <f>A8&amp;"*"&amp;A7</f>
-        <v>Ry*γс</v>
-      </c>
-      <c r="B15" s="25">
-        <f>B7*B8</f>
-        <v>2202.587020032307</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="46"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="37">
-        <f>B6*B2^2/(8*B15)</f>
-        <v>110.71299239583422</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="50"/>
+      <c r="D17" s="47"/>
+      <c r="F17" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="34">
+        <f>G7*G3^2/(8*G16)</f>
+        <v>332.13897718750263</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A12:C12"/>
+  <mergeCells count="8">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>$D$10</formula>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+      <formula>$D$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
-      <formula>$D$10</formula>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
+      <formula>$D$11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>$B$15</formula>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="lessThan">
+      <formula>$B$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>$B$15</formula>
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="greaterThan">
+      <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>$B$4</formula>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="lessThan">
+      <formula>$B$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>$B$4</formula>
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="greaterThan">
+      <formula>$B$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
+      <formula>$D$11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
+      <formula>$D$11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
+      <formula>$B$16</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
+      <formula>$B$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+      <formula>$G$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+      <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6644B1EC-C172-45DE-BFAF-F600A97FF5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C9FC03-DFD4-480E-95AF-6DB000A47894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>№ п/п</t>
   </si>
@@ -150,21 +150,6 @@
   </si>
   <si>
     <t>Сечение</t>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Inter"/>
-        <charset val="204"/>
-      </rPr>
-      <t>гр</t>
-    </r>
   </si>
   <si>
     <t>Wx</t>
@@ -268,9 +253,6 @@
     <t>Расчёт Wx</t>
   </si>
   <si>
-    <t>20Б0</t>
-  </si>
-  <si>
     <r>
       <t>W</t>
     </r>
@@ -308,9 +290,6 @@
     <t>Второстепенные балки</t>
   </si>
   <si>
-    <t>Первостепенные балки</t>
-  </si>
-  <si>
     <t>Ix</t>
   </si>
   <si>
@@ -333,13 +312,54 @@
     <t>Расчёт Ix</t>
   </si>
   <si>
-    <t>25Б3</t>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>гр</t>
+    </r>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>Основные балки</t>
+  </si>
+  <si>
+    <t>ДТ 20Б0</t>
+  </si>
+  <si>
+    <t>Второстеп балки</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>кг*м</t>
+  </si>
+  <si>
+    <t>Параметры балки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,13 +395,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Inter"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -404,8 +417,17 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,8 +452,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -714,11 +748,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -785,16 +875,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -802,38 +883,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,22 +910,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -874,21 +941,151 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -946,86 +1143,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1461,21 +1578,68 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>255814</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3BE010-EC5C-460E-8BDA-088ED3765CE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3897086"/>
+          <a:ext cx="6667500" cy="949325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="19">
       <calculatedColumnFormula>C2*D2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="25">
+    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="17">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1744,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1963,10 +2127,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="22" t="s">
         <v>19</v>
       </c>
@@ -2004,8 +2168,8 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D10" s="23" t="s">
-        <v>30</v>
+      <c r="D10" s="63" t="s">
+        <v>52</v>
       </c>
       <c r="E10" s="24">
         <f>SUM(Таблица1[Qн, ])</f>
@@ -2018,7 +2182,10 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="63" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="23">
         <v>2</v>
       </c>
@@ -2032,18 +2199,52 @@
         <v>705.69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="58">
-        <v>6</v>
-      </c>
-      <c r="E12" s="58">
-        <f>D12*E10</f>
-        <v>1625.6999999999998</v>
-      </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58">
-        <f>D12*G10</f>
-        <v>2117.0700000000002</v>
+    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="90">
+        <v>7</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92">
+        <f>18.2*6</f>
+        <v>109.19999999999999</v>
+      </c>
+      <c r="F12" s="92">
+        <v>1.05</v>
+      </c>
+      <c r="G12" s="92">
+        <f>E12*F12</f>
+        <v>114.66</v>
+      </c>
+      <c r="H12" s="93"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="23">
+        <v>2</v>
+      </c>
+      <c r="E13" s="25">
+        <f>E10+E12</f>
+        <v>380.15</v>
+      </c>
+      <c r="G13" s="25">
+        <f>G12+G10</f>
+        <v>467.505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="21">
+        <f>E13*D13</f>
+        <v>760.3</v>
+      </c>
+      <c r="G14" s="21">
+        <f>G13*D13</f>
+        <v>935.01</v>
       </c>
     </row>
   </sheetData>
@@ -2060,10 +2261,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9E8718-6AD5-4BAC-8B1F-72CAB04E655F}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2073,463 +2274,467 @@
     <col min="3" max="3" width="8.88671875" style="21"/>
     <col min="4" max="4" width="12" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="21"/>
-    <col min="6" max="6" width="12.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
-      <c r="F1" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+    <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="F1" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="31">
+        <v>600</v>
+      </c>
+      <c r="C3" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="51" t="s">
+      <c r="D3" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="99">
+        <v>600</v>
+      </c>
+      <c r="H3" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="38">
-        <v>600</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="I3" s="58"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="97">
+        <v>1581.56</v>
+      </c>
+      <c r="C4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="38">
-        <v>600</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="26">
-        <v>1581.56</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="59"/>
-      <c r="F4" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="26">
-        <v>5238.16</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="27">
-        <v>159.80000000000001</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="F5" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="27">
-        <v>410.8</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="D4" s="65"/>
+      <c r="F4" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="30">
+      <c r="G4" s="100">
         <f>2*10^5*10^6/9.81/(100^2)</f>
         <v>2038735.9836901119</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="F6" s="29" t="s">
+      <c r="H4" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="59"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="98">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="F5" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="100">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="30">
+      <c r="B6" s="27">
         <f>2*10^5*10^6/9.81/(100^2)</f>
         <v>2038735.9836901119</v>
       </c>
-      <c r="H6" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="C6" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="70"/>
+      <c r="F6" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="100">
+        <f>240*10.1971621297792</f>
+        <v>2447.3189111470078</v>
+      </c>
+      <c r="H6" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="59"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="27">
         <f>СборНагрузок!E11/100</f>
         <v>5.4189999999999996</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="F7" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="30">
-        <f>СборНагрузок!E12/100</f>
-        <v>16.256999999999998</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="C7" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="F7" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="40">
+        <f>СборНагрузок!E14/100</f>
+        <v>7.6029999999999998</v>
+      </c>
+      <c r="H7" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="F8" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="40">
+        <v>1140.45</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="59"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="F8" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="40">
+      <c r="B9" s="32">
         <f>240*10.1971621297792</f>
         <v>2447.3189111470078</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="F9" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="40">
-        <f>240*10.1971621297792</f>
-        <v>2447.3189111470078</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="44"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="C9" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="F9" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="101">
+        <f>G7*200</f>
+        <v>1520.6</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="27">
         <f>(5/384)*(B7*B3^4)/(B6*B4)</f>
         <v>2.836065597416475</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="45">
+      <c r="C11" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="36">
         <f>B3/200</f>
         <v>3</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="30">
-        <f>(5/384)*(G7*G3^4)/(G6*G4)</f>
-        <v>2.5688836764722724</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="45">
-        <f>G3/200</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="35">
+      <c r="F11" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="61"/>
+      <c r="H11" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="60"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="30">
         <f>(5*25/48)*B7*(B3^3)/B6</f>
         <v>1495.1359687499998</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="F12" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="35">
-        <f>(5*25/48)*G7*(G3^3)/G6</f>
-        <v>4485.4079062499995</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="44"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="30">
+      <c r="C12" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="F12" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="56"/>
+      <c r="H12" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="59"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="27">
         <f>B7*B3^2/8</f>
         <v>243854.99999999997</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="F14" s="29" t="s">
+      <c r="C14" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="F14" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="30">
-        <f>G7*G3^2/8</f>
-        <v>731564.99999999988</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="43"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="30">
+      <c r="B15" s="27">
         <f>B14/B5</f>
         <v>1526.0012515644553</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="46" t="str">
+      <c r="C15" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="37" t="str">
         <f>LEFT("&lt; "&amp;B16, 10)</f>
         <v>&lt; 2202,587</v>
       </c>
-      <c r="F15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="30">
-        <f>G14/G5</f>
-        <v>1780.8300876338847</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="46" t="str">
-        <f>LEFT("&lt; "&amp;G16, 10)</f>
-        <v>&lt; 2202,587</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="str">
+      <c r="F15" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="str">
         <f>A9&amp;"*"&amp;A8</f>
         <v>Ry*γс</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="26">
         <f>B8*B9</f>
         <v>2202.587020032307</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="43"/>
-      <c r="F16" s="29" t="str">
-        <f>F9&amp;"*"&amp;F8</f>
-        <v>Ry*γс</v>
-      </c>
-      <c r="G16" s="28">
-        <f>G8*G9</f>
-        <v>2202.587020032307</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="34">
+      <c r="C16" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="66"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="29">
         <f>B7*B3^2/(8*B16)</f>
         <v>110.71299239583422</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="F17" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="34">
-        <f>G7*G3^2/(8*G16)</f>
-        <v>332.13897718750263</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="47"/>
+      <c r="C17" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="51"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="52"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F21" s="51"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="51"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F13:H13"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
       <formula>$D$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="greaterThan">
       <formula>$D$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThan">
       <formula>$B$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
       <formula>$B$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
       <formula>$B$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
-      <formula>$D$11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
-      <formula>$D$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
-      <formula>$B$16</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
-      <formula>$B$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
-      <formula>$G$5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
-      <formula>$G$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C9FC03-DFD4-480E-95AF-6DB000A47894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976170E7-ED92-417D-A731-823DF70C108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>№ п/п</t>
   </si>
@@ -347,9 +347,6 @@
     <t>V</t>
   </si>
   <si>
-    <t>кг*м</t>
-  </si>
-  <si>
     <t>Параметры балки</t>
   </si>
 </sst>
@@ -360,7 +357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +423,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inter"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -465,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -681,17 +685,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -749,17 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -808,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -888,59 +870,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -949,39 +904,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,34 +927,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1030,7 +945,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,20 +960,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1066,7 +981,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,117 +990,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1626,20 +1531,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3645CFB6-B0BD-4446-9F44-E628F3BF8E11}" name="Таблица1" displayName="Таблица1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{8183B60A-E10C-4A2E-92F1-AF84282C6280}" name="№ п/п" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A9B5C510-C500-4B6B-A610-EE651E35788C}" name="Наименование" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{BD971CA7-2305-4C0C-839D-A359F4BD63F7}" name="ρ" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{41A4268E-525C-47E5-A064-5232788AFB22}" name="h" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{1A43476B-C444-4C63-905B-9532CA4DE150}" name="Qн, " dataDxfId="9">
       <calculatedColumnFormula>C2*D2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="17">
+    <tableColumn id="6" xr3:uid="{101A6059-660B-45D5-909E-4820653C046A}" name="γf" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{AF3EEBC6-68E0-4413-8258-2E8F49BDB9F4}" name="Qp" dataDxfId="7">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{F0C0D757-D5DD-47AF-812E-47A755CB3B6D}" name="№ ГОСТ" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2127,10 +2032,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="22" t="s">
         <v>19</v>
       </c>
@@ -2168,7 +2073,7 @@
       <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="46" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="24">
@@ -2183,7 +2088,7 @@
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="23">
@@ -2200,26 +2105,26 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90">
+      <c r="A12" s="67">
         <v>7</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92">
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69">
         <f>18.2*6</f>
         <v>109.19999999999999</v>
       </c>
-      <c r="F12" s="92">
+      <c r="F12" s="69">
         <v>1.05</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="69">
         <f>E12*F12</f>
         <v>114.66</v>
       </c>
-      <c r="H12" s="93"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="23">
@@ -2235,7 +2140,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="46" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="21">
@@ -2263,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9E8718-6AD5-4BAC-8B1F-72CAB04E655F}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2281,179 +2186,181 @@
     <col min="10" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49"/>
-      <c r="F1" s="71" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="F1" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="54" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="31">
         <v>600</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="99">
+      <c r="G3" s="76">
         <v>600</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="97">
+      <c r="B4" s="74">
         <v>1581.56</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="F4" s="80" t="s">
+      <c r="D4" s="48"/>
+      <c r="F4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="100">
+      <c r="G4" s="77">
         <f>2*10^5*10^6/9.81/(100^2)</f>
         <v>2038735.9836901119</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="98">
+      <c r="B5" s="75">
         <v>159.80000000000001</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="F5" s="78" t="s">
+      <c r="D5" s="49"/>
+      <c r="F5" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="100">
+      <c r="G5" s="77">
         <v>0.9</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="57" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="27">
         <f>2*10^5*10^6/9.81/(100^2)</f>
         <v>2038735.9836901119</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="F6" s="80" t="s">
+      <c r="D6" s="53"/>
+      <c r="F6" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="100">
+      <c r="G6" s="77">
         <f>240*10.1971621297792</f>
         <v>2447.3189111470078</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="57" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="27">
         <f>СборНагрузок!E11/100</f>
         <v>5.4189999999999996</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="F7" s="80" t="s">
+      <c r="D7" s="49"/>
+      <c r="F7" s="57" t="s">
         <v>57</v>
       </c>
       <c r="G7" s="40">
         <f>СборНагрузок!E14/100</f>
         <v>7.6029999999999998</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="55" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="27">
         <v>0.9</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="F8" s="80" t="s">
+      <c r="D8" s="49"/>
+      <c r="F8" s="57" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="40">
@@ -2462,168 +2369,176 @@
       <c r="H8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="73" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="32">
         <f>240*10.1971621297792</f>
         <v>2447.3189111470078</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="F9" s="79" t="s">
+      <c r="D9" s="50"/>
+      <c r="F9" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="101">
-        <f>G7*200</f>
-        <v>1520.6</v>
-      </c>
-      <c r="H9" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
+      <c r="G9" s="78">
+        <f>G7*2</f>
+        <v>15.206</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="100"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
+      <c r="F10" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="63" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27">
         <f>(5/384)*(B7*B3^4)/(B6*B4)</f>
         <v>2.836065597416475</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="58" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="36">
         <f>B3/200</f>
         <v>3</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="83" t="s">
+      <c r="G11" s="52"/>
+      <c r="H11" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="60"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="64" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="30">
         <f>(5*25/48)*B7*(B3^3)/B6</f>
         <v>1495.1359687499998</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="59" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="35"/>
-      <c r="F12" s="80" t="s">
+      <c r="F12" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="83" t="s">
+      <c r="G12" s="45"/>
+      <c r="H12" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="59"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="63" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="27">
         <f>B7*B3^2/8</f>
         <v>243854.99999999997</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="58" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="34"/>
-      <c r="F14" s="86" t="s">
+      <c r="F14" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="102" t="e">
+        <f>G7*200/(24*G4*G11)*(3*G3^2-4*200^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="102"/>
+      <c r="I14" s="108">
+        <f>G3/200</f>
+        <v>3</v>
+      </c>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="65" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="27">
         <f>B14/B5</f>
         <v>1526.0012515644553</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="60" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="37" t="str">
         <f>LEFT("&lt; "&amp;B16, 10)</f>
         <v>&lt; 2202,587</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="str">
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="66" t="str">
         <f>A9&amp;"*"&amp;A8</f>
         <v>Ry*γс</v>
       </c>
@@ -2631,19 +2546,19 @@
         <f>B8*B9</f>
         <v>2202.587020032307</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
+      <c r="D16" s="49"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="64" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="29">
@@ -2653,54 +2568,54 @@
       <c r="C17" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="53"/>
+      <c r="D17" s="51"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F19" s="51"/>
-      <c r="G19" s="53"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="52"/>
-      <c r="G20" s="50"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="51"/>
-      <c r="G21" s="50"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="51"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="50"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F1:H1"/>
+  <mergeCells count="9">
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="A1:D1"/>
@@ -2708,28 +2623,29 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="lessThan">
       <formula>$D$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="14" operator="greaterThan">
       <formula>$D$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="lessThan">
       <formula>$B$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="lessThan">
       <formula>$B$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
       <formula>$B$5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\практика\ProjectPractice2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976170E7-ED92-417D-A731-823DF70C108F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A3C423-6725-46E4-B327-429D9CDFC1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СборНагрузок" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>№ п/п</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>Параметры балки</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Ry*γс</t>
   </si>
 </sst>
 </file>
@@ -790,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -863,9 +869,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -900,9 +903,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -933,9 +933,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -951,9 +948,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,9 +969,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -993,9 +984,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,6 +1032,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,16 +1051,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1051,41 +1062,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1488,15 +1474,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>255814</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2268</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1517,8 +1503,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3897086"/>
-          <a:ext cx="6667500" cy="949325"/>
+          <a:off x="26276" y="4355225"/>
+          <a:ext cx="6214241" cy="919655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13896</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>197069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1C465B-2A58-4056-B869-C9E9323DE0D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="216777"/>
+          <a:ext cx="1761241" cy="1609395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1819,20 +1849,20 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="21"/>
+    <col min="8" max="8" width="20.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2031,11 +2061,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="22" t="s">
         <v>19</v>
       </c>
@@ -2053,7 +2083,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
@@ -2072,8 +2102,8 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D10" s="46" t="s">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D10" s="44" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="24">
@@ -2087,8 +2117,8 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="46" t="s">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="23">
@@ -2104,27 +2134,27 @@
         <v>705.69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="63">
         <v>7</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69">
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65">
         <f>18.2*6</f>
         <v>109.19999999999999</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="65">
         <v>1.05</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="65">
         <f>E12*F12</f>
         <v>114.66</v>
       </c>
-      <c r="H12" s="70"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="23">
@@ -2140,7 +2170,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="44" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="21">
@@ -2168,377 +2198,385 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9E8718-6AD5-4BAC-8B1F-72CAB04E655F}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="21"/>
+    <col min="1" max="1" width="5.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="21"/>
     <col min="4" max="4" width="12" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="21"/>
-    <col min="6" max="6" width="8.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="21"/>
+    <col min="5" max="5" width="8.85546875" style="21"/>
+    <col min="6" max="6" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="F1" s="95" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90"/>
+      <c r="F1" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="42"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="39" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="39" t="s">
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="30">
         <v>600</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="76">
+      <c r="G3" s="71">
         <v>600</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="I3" s="74"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="69">
         <v>1581.56</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="F4" s="57" t="s">
+      <c r="D4" s="46"/>
+      <c r="F4" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="72">
         <f>2*10^5*10^6/9.81/(100^2)</f>
         <v>2038735.9836901119</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="I4" s="75"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="75">
+      <c r="B5" s="70">
         <v>159.80000000000001</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="F5" s="55" t="s">
+      <c r="D5" s="47"/>
+      <c r="F5" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="72">
         <v>0.9</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="99"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="I5" s="75"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="27">
         <f>2*10^5*10^6/9.81/(100^2)</f>
         <v>2038735.9836901119</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="F6" s="57" t="s">
+      <c r="D6" s="51"/>
+      <c r="F6" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="72">
         <f>240*10.1971621297792</f>
         <v>2447.3189111470078</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="99"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="I6" s="75"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="27">
         <f>СборНагрузок!E11/100</f>
         <v>5.4189999999999996</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="F7" s="57" t="s">
+      <c r="D7" s="47"/>
+      <c r="F7" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="39">
         <f>СборНагрузок!E14/100</f>
         <v>7.6029999999999998</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="99"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="I7" s="75"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="27">
         <v>0.9</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="F8" s="57" t="s">
+      <c r="D8" s="47"/>
+      <c r="F8" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="39">
         <v>1140.45</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="99"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
+      <c r="I8" s="75"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <f>240*10.1971621297792</f>
         <v>2447.3189111470078</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="F9" s="56" t="s">
+      <c r="D9" s="48"/>
+      <c r="F9" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="39">
         <f>G7*2</f>
         <v>15.206</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="100"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="33" t="s">
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="F10" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="37">
+        <v>200</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="59" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="27">
         <f>(5/384)*(B7*B3^4)/(B6*B4)</f>
         <v>2.836065597416475</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <f>B3/200</f>
         <v>3</v>
       </c>
-      <c r="F11" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="109"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64" t="s">
+      <c r="F11" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <f>(5*25/48)*B7*(B3^3)/B6</f>
         <v>1495.1359687499998</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="F12" s="57" t="s">
+      <c r="D12" s="34"/>
+      <c r="F12" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="50">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="81"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="60" t="s">
+      <c r="G13" s="43">
+        <v>9.6</v>
+      </c>
+      <c r="H13" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="I13" s="76"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="59" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="27">
         <f>B7*B3^2/8</f>
         <v>243854.99999999997</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="F14" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="102" t="e">
-        <f>G7*200/(24*G4*G11)*(3*G3^2-4*200^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="108">
-        <f>G3/200</f>
-        <v>3</v>
-      </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
+      <c r="D14" s="33"/>
+      <c r="F14" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="27">
         <f>B14/B5</f>
         <v>1526.0012515644553</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="37" t="str">
+      <c r="D15" s="36" t="str">
         <f>LEFT("&lt; "&amp;B16, 10)</f>
         <v>&lt; 2202,587</v>
       </c>
-      <c r="F15" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66" t="str">
+      <c r="F15" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="78">
+        <f>G7*200/(24*G4*G12)*(3*G3^2-4*200^2)</f>
+        <v>2.993830523560209</v>
+      </c>
+      <c r="H15" s="78"/>
+      <c r="I15" s="80">
+        <f>G3/200</f>
+        <v>3</v>
+      </c>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="62" t="str">
         <f>A9&amp;"*"&amp;A8</f>
         <v>Ry*γс</v>
       </c>
@@ -2546,84 +2584,101 @@
         <f>B8*B9</f>
         <v>2202.587020032307</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64" t="s">
+      <c r="D16" s="47"/>
+      <c r="F16" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="101">
+        <f>(G7*200)/(24*G4*G15)*(3*G3^2-4*200^2)</f>
+        <v>9.5500000000000025</v>
+      </c>
+      <c r="H16" s="79"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+    </row>
+    <row r="17" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <f>B7*B3^2/(8*B16)</f>
         <v>110.71299239583422</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
+      <c r="D17" s="49"/>
+      <c r="F17" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="95"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
+      <c r="F18" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F19" s="42"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
+      <c r="F19" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="104"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F20" s="43"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="42"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
+      <c r="F20" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="39"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+    </row>
+    <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="42"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F11:H11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F14:H14"/>
   </mergeCells>
   <conditionalFormatting sqref="B11">
     <cfRule type="cellIs" dxfId="5" priority="13" operator="lessThan">

--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\практика\ProjectPractice2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A3C423-6725-46E4-B327-429D9CDFC1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1AF8FE-52DD-418B-8E1D-A8E49E3439AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="СборНагрузок" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>№ п/п</t>
   </si>
@@ -796,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1000,78 +1000,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1849,20 +1846,20 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="21"/>
+    <col min="8" max="8" width="20.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2061,11 +2058,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
+    <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="22" t="s">
         <v>19</v>
       </c>
@@ -2083,7 +2080,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16" t="s">
@@ -2102,7 +2099,7 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="D10" s="44" t="s">
         <v>52</v>
       </c>
@@ -2117,7 +2114,7 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="44" t="s">
         <v>26</v>
       </c>
@@ -2134,7 +2131,7 @@
         <v>705.69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="63">
         <v>7</v>
       </c>
@@ -2199,60 +2196,60 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="21"/>
+    <col min="1" max="1" width="5.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="21"/>
     <col min="4" max="4" width="12" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="21"/>
-    <col min="6" max="6" width="8.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="21"/>
+    <col min="5" max="5" width="8.88671875" style="21"/>
+    <col min="6" max="6" width="8.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90"/>
-      <c r="F1" s="98" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
+      <c r="F1" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="100"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="104"/>
       <c r="J1" s="73"/>
       <c r="K1" s="42"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100"/>
       <c r="I2" s="38" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
         <v>27</v>
       </c>
@@ -2278,7 +2275,7 @@
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>49</v>
       </c>
@@ -2303,7 +2300,7 @@
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
         <v>30</v>
       </c>
@@ -2327,7 +2324,7 @@
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>28</v>
       </c>
@@ -2353,7 +2350,7 @@
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
     </row>
-    <row r="7" spans="1:11" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>26</v>
       </c>
@@ -2379,7 +2376,7 @@
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>42</v>
       </c>
@@ -2403,7 +2400,7 @@
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="68" t="s">
         <v>43</v>
       </c>
@@ -2430,15 +2427,15 @@
       <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="83" t="s">
         <v>60</v>
       </c>
       <c r="G10" s="37">
@@ -2451,7 +2448,7 @@
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="59" t="s">
         <v>25</v>
       </c>
@@ -2466,16 +2463,16 @@
         <f>B3/200</f>
         <v>3</v>
       </c>
-      <c r="F11" s="85" t="s">
+      <c r="F11" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="82"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="81"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
     </row>
-    <row r="12" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>50</v>
       </c>
@@ -2490,22 +2487,20 @@
       <c r="F12" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="50">
-        <v>9.5500000000000007</v>
-      </c>
+      <c r="G12" s="50"/>
       <c r="H12" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="81"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="96"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="32" t="s">
         <v>41</v>
       </c>
@@ -2522,7 +2517,7 @@
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
         <v>31</v>
       </c>
@@ -2534,18 +2529,18 @@
         <v>34</v>
       </c>
       <c r="D14" s="33"/>
-      <c r="F14" s="85" t="s">
+      <c r="F14" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
       <c r="I14" s="77" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>32</v>
       </c>
@@ -2563,19 +2558,21 @@
       <c r="F15" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="78">
+      <c r="G15" s="78" t="e">
         <f>G7*200/(24*G4*G12)*(3*G3^2-4*200^2)</f>
-        <v>2.993830523560209</v>
-      </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="80">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="79">
         <f>G3/200</f>
         <v>3</v>
       </c>
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
     </row>
-    <row r="16" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="62" t="str">
         <f>A9&amp;"*"&amp;A8</f>
         <v>Ry*γс</v>
@@ -2591,16 +2588,18 @@
       <c r="F16" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="101">
-        <f>(G7*200)/(24*G4*G15)*(3*G3^2-4*200^2)</f>
-        <v>9.5500000000000025</v>
-      </c>
-      <c r="H16" s="79"/>
+      <c r="G16" s="82">
+        <f>G7*G10 / (24*G4*I15) * (3*G3^2-4*G10^2)</f>
+        <v>9.5303605000000005</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>39</v>
+      </c>
       <c r="I16" s="76"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
     </row>
-    <row r="17" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
         <v>45</v>
       </c>
@@ -2612,11 +2611,11 @@
         <v>46</v>
       </c>
       <c r="D17" s="49"/>
-      <c r="F17" s="94" t="s">
+      <c r="F17" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91"/>
       <c r="I17" s="32" t="s">
         <v>41</v>
       </c>
@@ -2627,39 +2626,56 @@
       <c r="F18" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="105"/>
+      <c r="G18" s="105">
+        <f>G7*G10</f>
+        <v>1520.6</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="85"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="F19" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="104"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="104"/>
+      <c r="G19" s="84">
+        <f>G18/G13</f>
+        <v>158.39583333333334</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="84"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="F20" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="104"/>
+      <c r="G20" s="39">
+        <f>G6*G5</f>
+        <v>2202.587020032307</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="84"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
     </row>
-    <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="60" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="37"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="106"/>
+      <c r="H21" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="86"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
     </row>

--- a/21.06 Компоновочная схема.xlsx
+++ b/21.06 Компоновочная схема.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomodanEA\Desktop\Проектная практика\ProjectPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1AF8FE-52DD-418B-8E1D-A8E49E3439AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F2FA2A-7F44-4CE9-83CB-D82E73C28B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1012,6 +1034,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1065,9 +1090,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2059,10 +2081,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="88"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="22" t="s">
         <v>19</v>
       </c>
@@ -2195,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9E8718-6AD5-4BAC-8B1F-72CAB04E655F}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2214,35 +2236,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="F1" s="102" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98"/>
+      <c r="F1" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="105"/>
       <c r="J1" s="73"/>
       <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="38" t="s">
         <v>29</v>
       </c>
@@ -2427,11 +2449,11 @@
       <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="32" t="s">
         <v>41</v>
       </c>
@@ -2463,11 +2485,11 @@
         <f>B3/200</f>
         <v>3</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="F11" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
       <c r="I11" s="81"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
@@ -2487,20 +2509,25 @@
       <c r="F12" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="50"/>
+      <c r="G12" s="50">
+        <v>1581.56</v>
+      </c>
       <c r="H12" s="57" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="80"/>
       <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="K12" s="42" t="e" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">hw()</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="32" t="s">
         <v>41</v>
       </c>
@@ -2508,7 +2535,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="43">
-        <v>9.6</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="H13" s="57" t="s">
         <v>35</v>
@@ -2529,11 +2556,11 @@
         <v>34</v>
       </c>
       <c r="D14" s="33"/>
-      <c r="F14" s="92" t="s">
+      <c r="F14" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="95"/>
       <c r="I14" s="77" t="s">
         <v>41</v>
       </c>
@@ -2558,9 +2585,9 @@
       <c r="F15" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="78" t="e">
+      <c r="G15" s="78">
         <f>G7*200/(24*G4*G12)*(3*G3^2-4*200^2)</f>
-        <v>#DIV/0!</v>
+        <v>1.8077772262829108E-2</v>
       </c>
       <c r="H15" s="55" t="s">
         <v>36</v>
@@ -2595,7 +2622,10 @@
       <c r="H16" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="76"/>
+      <c r="I16" s="76" t="str">
+        <f>IF(G15&lt;=I15, "OK", "ERROR")</f>
+        <v>OK</v>
+      </c>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
     </row>
@@ -2611,11 +2641,11 @@
         <v>46</v>
       </c>
       <c r="D17" s="49"/>
-      <c r="F17" s="89" t="s">
+      <c r="F17" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
       <c r="I17" s="32" t="s">
         <v>41</v>
       </c>
@@ -2626,7 +2656,7 @@
       <c r="F18" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="105">
+      <c r="G18" s="87">
         <f>G7*G10</f>
         <v>1520.6</v>
       </c>
@@ -2643,7 +2673,7 @@
       </c>
       <c r="G19" s="84">
         <f>G18/G13</f>
-        <v>158.39583333333334</v>
+        <v>9.5156445556946174</v>
       </c>
       <c r="H19" s="57" t="s">
         <v>33</v>
